--- a/tables/data.xlsx
+++ b/tables/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A24D96-6A8D-B641-ABDB-A0020BBD2612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57478BC6-DDEF-F943-84D8-7EFD32D21DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25500" windowHeight="14160" xr2:uid="{6AE634BB-A28D-7647-A932-733E210509A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>text</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>датасеты от канала Если быть точным</t>
+  </si>
+  <si>
+    <t>Геоданные</t>
+  </si>
+  <si>
+    <t>каталог пространственных данных, доступных для скачивания и использования в собственных проектах и исследованиях, ВШЭ</t>
+  </si>
+  <si>
+    <t>https://geoportal.hse.ru/portal/apps/sites/#/geodata/pages/geodata</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6040A9B3-C63D-3F4D-9025-70C55ECDF216}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,6 +652,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
